--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lama2-Dag1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lama2-Dag1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Dag1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.72306883231591</v>
+        <v>1.969292666666667</v>
       </c>
       <c r="H2">
-        <v>1.72306883231591</v>
+        <v>5.907878</v>
       </c>
       <c r="I2">
-        <v>0.01826875689139362</v>
+        <v>0.01927739905292307</v>
       </c>
       <c r="J2">
-        <v>0.01826875689139362</v>
+        <v>0.02250741773403226</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0811241083896</v>
+        <v>18.91686333333334</v>
       </c>
       <c r="N2">
-        <v>17.0811241083896</v>
+        <v>56.75059</v>
       </c>
       <c r="O2">
-        <v>0.1227083427045537</v>
+        <v>0.1307094812119195</v>
       </c>
       <c r="P2">
-        <v>0.1227083427045537</v>
+        <v>0.1618499242031174</v>
       </c>
       <c r="Q2">
-        <v>29.431952572086</v>
+        <v>37.2528402386689</v>
       </c>
       <c r="R2">
-        <v>29.431952572086</v>
+        <v>335.27556214802</v>
       </c>
       <c r="S2">
-        <v>0.002241728881415305</v>
+        <v>0.002519738829322723</v>
       </c>
       <c r="T2">
-        <v>0.002241728881415305</v>
+        <v>0.003642823854261022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.72306883231591</v>
+        <v>1.969292666666667</v>
       </c>
       <c r="H3">
-        <v>1.72306883231591</v>
+        <v>5.907878</v>
       </c>
       <c r="I3">
-        <v>0.01826875689139362</v>
+        <v>0.01927739905292307</v>
       </c>
       <c r="J3">
-        <v>0.01826875689139362</v>
+        <v>0.02250741773403226</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.7068969381702</v>
+        <v>30.812519</v>
       </c>
       <c r="N3">
-        <v>28.7068969381702</v>
+        <v>92.437557</v>
       </c>
       <c r="O3">
-        <v>0.2062262252250212</v>
+        <v>0.2129046609025076</v>
       </c>
       <c r="P3">
-        <v>0.2062262252250212</v>
+        <v>0.2636274194501123</v>
       </c>
       <c r="Q3">
-        <v>49.4639593866661</v>
+        <v>60.67886770822734</v>
       </c>
       <c r="R3">
-        <v>49.4639593866661</v>
+        <v>546.109809374046</v>
       </c>
       <c r="S3">
-        <v>0.003767496773265698</v>
+        <v>0.004104248108444907</v>
       </c>
       <c r="T3">
-        <v>0.003767496773265698</v>
+        <v>0.005933572455708616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.72306883231591</v>
+        <v>1.969292666666667</v>
       </c>
       <c r="H4">
-        <v>1.72306883231591</v>
+        <v>5.907878</v>
       </c>
       <c r="I4">
-        <v>0.01826875689139362</v>
+        <v>0.01927739905292307</v>
       </c>
       <c r="J4">
-        <v>0.01826875689139362</v>
+        <v>0.02250741773403226</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.59120512106334</v>
+        <v>5.973992333333332</v>
       </c>
       <c r="N4">
-        <v>5.59120512106334</v>
+        <v>17.921977</v>
       </c>
       <c r="O4">
-        <v>0.04016641467934279</v>
+        <v>0.04127837818006743</v>
       </c>
       <c r="P4">
-        <v>0.04016641467934279</v>
+        <v>0.05111260727016254</v>
       </c>
       <c r="Q4">
-        <v>9.634031279189346</v>
+        <v>11.76453929275622</v>
       </c>
       <c r="R4">
-        <v>9.634031279189346</v>
+        <v>105.880853634806</v>
       </c>
       <c r="S4">
-        <v>0.0007337904649758175</v>
+        <v>0.0007957397684346323</v>
       </c>
       <c r="T4">
-        <v>0.0007337904649758175</v>
+        <v>0.001150412803305083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.72306883231591</v>
+        <v>1.969292666666667</v>
       </c>
       <c r="H5">
-        <v>1.72306883231591</v>
+        <v>5.907878</v>
       </c>
       <c r="I5">
-        <v>0.01826875689139362</v>
+        <v>0.01927739905292307</v>
       </c>
       <c r="J5">
-        <v>0.01826875689139362</v>
+        <v>0.02250741773403226</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.2201154562181</v>
+        <v>5.484752333333333</v>
       </c>
       <c r="N5">
-        <v>5.2201154562181</v>
+        <v>16.454257</v>
       </c>
       <c r="O5">
-        <v>0.03750055981645456</v>
+        <v>0.03789788610475406</v>
       </c>
       <c r="P5">
-        <v>0.03750055981645456</v>
+        <v>0.04692674117165327</v>
       </c>
       <c r="Q5">
-        <v>8.994618243699955</v>
+        <v>10.80108254851622</v>
       </c>
       <c r="R5">
-        <v>8.994618243699955</v>
+        <v>97.20974293664599</v>
       </c>
       <c r="S5">
-        <v>0.000685088610577973</v>
+        <v>0.0007305726737035724</v>
       </c>
       <c r="T5">
-        <v>0.000685088610577973</v>
+        <v>0.00105619976644721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.72306883231591</v>
+        <v>1.969292666666667</v>
       </c>
       <c r="H6">
-        <v>1.72306883231591</v>
+        <v>5.907878</v>
       </c>
       <c r="I6">
-        <v>0.01826875689139362</v>
+        <v>0.01927739905292307</v>
       </c>
       <c r="J6">
-        <v>0.01826875689139362</v>
+        <v>0.02250741773403226</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>82.60165915502201</v>
+        <v>83.5363655</v>
       </c>
       <c r="N6">
-        <v>82.60165915502201</v>
+        <v>167.072731</v>
       </c>
       <c r="O6">
-        <v>0.5933984575746277</v>
+        <v>0.5772095936007515</v>
       </c>
       <c r="P6">
-        <v>0.5933984575746277</v>
+        <v>0.4764833079049545</v>
       </c>
       <c r="Q6">
-        <v>142.3283443876006</v>
+        <v>164.5075519791363</v>
       </c>
       <c r="R6">
-        <v>142.3283443876006</v>
+        <v>987.045311874818</v>
       </c>
       <c r="S6">
-        <v>0.01084065216115883</v>
+        <v>0.01112709967301724</v>
       </c>
       <c r="T6">
-        <v>0.01084065216115883</v>
+        <v>0.01072440885431033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.3333511289122</v>
+        <v>56.06511666666668</v>
       </c>
       <c r="H7">
-        <v>52.3333511289122</v>
+        <v>168.19535</v>
       </c>
       <c r="I7">
-        <v>0.5548619133230022</v>
+        <v>0.5488212317173891</v>
       </c>
       <c r="J7">
-        <v>0.5548619133230022</v>
+        <v>0.6407788047369568</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.0811241083896</v>
+        <v>18.91686333333334</v>
       </c>
       <c r="N7">
-        <v>17.0811241083896</v>
+        <v>56.75059</v>
       </c>
       <c r="O7">
-        <v>0.1227083427045537</v>
+        <v>0.1307094812119195</v>
       </c>
       <c r="P7">
-        <v>0.1227083427045537</v>
+        <v>0.1618499242031174</v>
       </c>
       <c r="Q7">
-        <v>893.9124656408802</v>
+        <v>1060.576149750723</v>
       </c>
       <c r="R7">
-        <v>893.9124656408802</v>
+        <v>9545.185347756502</v>
       </c>
       <c r="S7">
-        <v>0.06808618581374332</v>
+        <v>0.07173613847586659</v>
       </c>
       <c r="T7">
-        <v>0.06808618581374332</v>
+        <v>0.1037100009776407</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.3333511289122</v>
+        <v>56.06511666666668</v>
       </c>
       <c r="H8">
-        <v>52.3333511289122</v>
+        <v>168.19535</v>
       </c>
       <c r="I8">
-        <v>0.5548619133230022</v>
+        <v>0.5488212317173891</v>
       </c>
       <c r="J8">
-        <v>0.5548619133230022</v>
+        <v>0.6407788047369568</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.7068969381702</v>
+        <v>30.812519</v>
       </c>
       <c r="N8">
-        <v>28.7068969381702</v>
+        <v>92.437557</v>
       </c>
       <c r="O8">
-        <v>0.2062262252250212</v>
+        <v>0.2129046609025076</v>
       </c>
       <c r="P8">
-        <v>0.2062262252250212</v>
+        <v>0.2636274194501123</v>
       </c>
       <c r="Q8">
-        <v>1502.328117286756</v>
+        <v>1727.507472528883</v>
       </c>
       <c r="R8">
-        <v>1502.328117286756</v>
+        <v>15547.56725275995</v>
       </c>
       <c r="S8">
-        <v>0.1144270779057356</v>
+        <v>0.1168465982348872</v>
       </c>
       <c r="T8">
-        <v>0.1144270779057356</v>
+        <v>0.1689268627311313</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.3333511289122</v>
+        <v>56.06511666666668</v>
       </c>
       <c r="H9">
-        <v>52.3333511289122</v>
+        <v>168.19535</v>
       </c>
       <c r="I9">
-        <v>0.5548619133230022</v>
+        <v>0.5488212317173891</v>
       </c>
       <c r="J9">
-        <v>0.5548619133230022</v>
+        <v>0.6407788047369568</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.59120512106334</v>
+        <v>5.973992333333332</v>
       </c>
       <c r="N9">
-        <v>5.59120512106334</v>
+        <v>17.921977</v>
       </c>
       <c r="O9">
-        <v>0.04016641467934279</v>
+        <v>0.04127837818006743</v>
       </c>
       <c r="P9">
-        <v>0.04016641467934279</v>
+        <v>0.05111260727016254</v>
       </c>
       <c r="Q9">
-        <v>292.6065008343798</v>
+        <v>334.9325771341055</v>
       </c>
       <c r="R9">
-        <v>292.6065008343798</v>
+        <v>3014.39319420695</v>
       </c>
       <c r="S9">
-        <v>0.02228681370030526</v>
+        <v>0.0226544503560808</v>
       </c>
       <c r="T9">
-        <v>0.02228681370030526</v>
+        <v>0.03275187539356424</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.3333511289122</v>
+        <v>56.06511666666668</v>
       </c>
       <c r="H10">
-        <v>52.3333511289122</v>
+        <v>168.19535</v>
       </c>
       <c r="I10">
-        <v>0.5548619133230022</v>
+        <v>0.5488212317173891</v>
       </c>
       <c r="J10">
-        <v>0.5548619133230022</v>
+        <v>0.6407788047369568</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.2201154562181</v>
+        <v>5.484752333333333</v>
       </c>
       <c r="N10">
-        <v>5.2201154562181</v>
+        <v>16.454257</v>
       </c>
       <c r="O10">
-        <v>0.03750055981645456</v>
+        <v>0.03789788610475406</v>
       </c>
       <c r="P10">
-        <v>0.03750055981645456</v>
+        <v>0.04692674117165327</v>
       </c>
       <c r="Q10">
-        <v>273.1861351037235</v>
+        <v>307.5032794561056</v>
       </c>
       <c r="R10">
-        <v>273.1861351037235</v>
+        <v>2767.52951510495</v>
       </c>
       <c r="S10">
-        <v>0.02080763237044167</v>
+        <v>0.02079916453149645</v>
       </c>
       <c r="T10">
-        <v>0.02080763237044167</v>
+        <v>0.03006966111817252</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>52.3333511289122</v>
+        <v>56.06511666666668</v>
       </c>
       <c r="H11">
-        <v>52.3333511289122</v>
+        <v>168.19535</v>
       </c>
       <c r="I11">
-        <v>0.5548619133230022</v>
+        <v>0.5488212317173891</v>
       </c>
       <c r="J11">
-        <v>0.5548619133230022</v>
+        <v>0.6407788047369568</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>82.60165915502201</v>
+        <v>83.5363655</v>
       </c>
       <c r="N11">
-        <v>82.60165915502201</v>
+        <v>167.072731</v>
       </c>
       <c r="O11">
-        <v>0.5933984575746277</v>
+        <v>0.5772095936007515</v>
       </c>
       <c r="P11">
-        <v>0.5933984575746277</v>
+        <v>0.4764833079049545</v>
       </c>
       <c r="Q11">
-        <v>4322.821632390492</v>
+        <v>4683.476077666809</v>
       </c>
       <c r="R11">
-        <v>4322.821632390492</v>
+        <v>28100.85646600085</v>
       </c>
       <c r="S11">
-        <v>0.3292542035327763</v>
+        <v>0.316784880119058</v>
       </c>
       <c r="T11">
-        <v>0.3292542035327763</v>
+        <v>0.3053204045164481</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>40.2613731190249</v>
+        <v>0.1037003333333333</v>
       </c>
       <c r="H12">
-        <v>40.2613731190249</v>
+        <v>0.311101</v>
       </c>
       <c r="I12">
-        <v>0.4268693297856042</v>
+        <v>0.001015122201704812</v>
       </c>
       <c r="J12">
-        <v>0.4268693297856042</v>
+        <v>0.001185210690619402</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.0811241083896</v>
+        <v>18.91686333333334</v>
       </c>
       <c r="N12">
-        <v>17.0811241083896</v>
+        <v>56.75059</v>
       </c>
       <c r="O12">
-        <v>0.1227083427045537</v>
+        <v>0.1307094812119195</v>
       </c>
       <c r="P12">
-        <v>0.1227083427045537</v>
+        <v>0.1618499242031174</v>
       </c>
       <c r="Q12">
-        <v>687.7095110202451</v>
+        <v>1.961685033287778</v>
       </c>
       <c r="R12">
-        <v>687.7095110202451</v>
+        <v>17.65516529959</v>
       </c>
       <c r="S12">
-        <v>0.05238042800939507</v>
+        <v>0.0001326860963515375</v>
       </c>
       <c r="T12">
-        <v>0.05238042800939507</v>
+        <v>0.0001918262604414746</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>40.2613731190249</v>
+        <v>0.1037003333333333</v>
       </c>
       <c r="H13">
-        <v>40.2613731190249</v>
+        <v>0.311101</v>
       </c>
       <c r="I13">
-        <v>0.4268693297856042</v>
+        <v>0.001015122201704812</v>
       </c>
       <c r="J13">
-        <v>0.4268693297856042</v>
+        <v>0.001185210690619402</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.7068969381702</v>
+        <v>30.812519</v>
       </c>
       <c r="N13">
-        <v>28.7068969381702</v>
+        <v>92.437557</v>
       </c>
       <c r="O13">
-        <v>0.2062262252250212</v>
+        <v>0.2129046609025076</v>
       </c>
       <c r="P13">
-        <v>0.2062262252250212</v>
+        <v>0.2636274194501123</v>
       </c>
       <c r="Q13">
-        <v>1155.779088717064</v>
+        <v>3.195268491139667</v>
       </c>
       <c r="R13">
-        <v>1155.779088717064</v>
+        <v>28.757416420257</v>
       </c>
       <c r="S13">
-        <v>0.08803165054601984</v>
+        <v>0.0002161242481285699</v>
       </c>
       <c r="T13">
-        <v>0.08803165054601984</v>
+        <v>0.0003124540358726782</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>40.2613731190249</v>
+        <v>0.1037003333333333</v>
       </c>
       <c r="H14">
-        <v>40.2613731190249</v>
+        <v>0.311101</v>
       </c>
       <c r="I14">
-        <v>0.4268693297856042</v>
+        <v>0.001015122201704812</v>
       </c>
       <c r="J14">
-        <v>0.4268693297856042</v>
+        <v>0.001185210690619402</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.59120512106334</v>
+        <v>5.973992333333332</v>
       </c>
       <c r="N14">
-        <v>5.59120512106334</v>
+        <v>17.921977</v>
       </c>
       <c r="O14">
-        <v>0.04016641467934279</v>
+        <v>0.04127837818006743</v>
       </c>
       <c r="P14">
-        <v>0.04016641467934279</v>
+        <v>0.05111260727016254</v>
       </c>
       <c r="Q14">
-        <v>225.1095955641339</v>
+        <v>0.6195049962974444</v>
       </c>
       <c r="R14">
-        <v>225.1095955641339</v>
+        <v>5.575544966677</v>
       </c>
       <c r="S14">
-        <v>0.01714581051406171</v>
+        <v>4.190259814095392E-05</v>
       </c>
       <c r="T14">
-        <v>0.01714581051406171</v>
+        <v>6.05792085620276E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>40.2613731190249</v>
+        <v>0.1037003333333333</v>
       </c>
       <c r="H15">
-        <v>40.2613731190249</v>
+        <v>0.311101</v>
       </c>
       <c r="I15">
-        <v>0.4268693297856042</v>
+        <v>0.001015122201704812</v>
       </c>
       <c r="J15">
-        <v>0.4268693297856042</v>
+        <v>0.001185210690619402</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.2201154562181</v>
+        <v>5.484752333333333</v>
       </c>
       <c r="N15">
-        <v>5.2201154562181</v>
+        <v>16.454257</v>
       </c>
       <c r="O15">
-        <v>0.03750055981645456</v>
+        <v>0.03789788610475406</v>
       </c>
       <c r="P15">
-        <v>0.03750055981645456</v>
+        <v>0.04692674117165327</v>
       </c>
       <c r="Q15">
-        <v>210.1690161071858</v>
+        <v>0.5687706452174445</v>
       </c>
       <c r="R15">
-        <v>210.1690161071858</v>
+        <v>5.118935806956999</v>
       </c>
       <c r="S15">
-        <v>0.01600783883543492</v>
+        <v>3.847098558261614E-05</v>
       </c>
       <c r="T15">
-        <v>0.01600783883543492</v>
+        <v>5.561807531257308E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1037003333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.311101</v>
+      </c>
+      <c r="I16">
+        <v>0.001015122201704812</v>
+      </c>
+      <c r="J16">
+        <v>0.001185210690619402</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>83.5363655</v>
+      </c>
+      <c r="N16">
+        <v>167.072731</v>
+      </c>
+      <c r="O16">
+        <v>0.5772095936007515</v>
+      </c>
+      <c r="P16">
+        <v>0.4764833079049545</v>
+      </c>
+      <c r="Q16">
+        <v>8.662748947805168</v>
+      </c>
+      <c r="R16">
+        <v>51.97649368683101</v>
+      </c>
+      <c r="S16">
+        <v>0.0005859382735011346</v>
+      </c>
+      <c r="T16">
+        <v>0.0005647331104306481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03667633333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.110029</v>
+      </c>
+      <c r="I17">
+        <v>0.0003590244992185134</v>
+      </c>
+      <c r="J17">
+        <v>0.0004191807389823952</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.91686333333334</v>
+      </c>
+      <c r="N17">
+        <v>56.75059</v>
+      </c>
+      <c r="O17">
+        <v>0.1307094812119195</v>
+      </c>
+      <c r="P17">
+        <v>0.1618499242031174</v>
+      </c>
+      <c r="Q17">
+        <v>0.6938011852344445</v>
+      </c>
+      <c r="R17">
+        <v>6.24421066711</v>
+      </c>
+      <c r="S17">
+        <v>4.692790603522108E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.784437083170743E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.03667633333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.110029</v>
+      </c>
+      <c r="I18">
+        <v>0.0003590244992185134</v>
+      </c>
+      <c r="J18">
+        <v>0.0004191807389823952</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>30.812519</v>
+      </c>
+      <c r="N18">
+        <v>92.437557</v>
+      </c>
+      <c r="O18">
+        <v>0.2129046609025076</v>
+      </c>
+      <c r="P18">
+        <v>0.2636274194501123</v>
+      </c>
+      <c r="Q18">
+        <v>1.130090217683666</v>
+      </c>
+      <c r="R18">
+        <v>10.170811959153</v>
+      </c>
+      <c r="S18">
+        <v>7.643798926181018E-05</v>
+      </c>
+      <c r="T18">
+        <v>0.0001105075365011199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03667633333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.110029</v>
+      </c>
+      <c r="I19">
+        <v>0.0003590244992185134</v>
+      </c>
+      <c r="J19">
+        <v>0.0004191807389823952</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.973992333333332</v>
+      </c>
+      <c r="N19">
+        <v>17.921977</v>
+      </c>
+      <c r="O19">
+        <v>0.04127837818006743</v>
+      </c>
+      <c r="P19">
+        <v>0.05111260727016254</v>
+      </c>
+      <c r="Q19">
+        <v>0.2191041341481111</v>
+      </c>
+      <c r="R19">
+        <v>1.971937207333</v>
+      </c>
+      <c r="S19">
+        <v>1.481994905465112E-05</v>
+      </c>
+      <c r="T19">
+        <v>2.142542048682368E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.03667633333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.110029</v>
+      </c>
+      <c r="I20">
+        <v>0.0003590244992185134</v>
+      </c>
+      <c r="J20">
+        <v>0.0004191807389823952</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.484752333333333</v>
+      </c>
+      <c r="N20">
+        <v>16.454257</v>
+      </c>
+      <c r="O20">
+        <v>0.03789788610475406</v>
+      </c>
+      <c r="P20">
+        <v>0.04692674117165327</v>
+      </c>
+      <c r="Q20">
+        <v>0.2011606048281111</v>
+      </c>
+      <c r="R20">
+        <v>1.810445443453</v>
+      </c>
+      <c r="S20">
+        <v>1.360626958019958E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.967078604236921E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.03667633333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.110029</v>
+      </c>
+      <c r="I21">
+        <v>0.0003590244992185134</v>
+      </c>
+      <c r="J21">
+        <v>0.0004191807389823952</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>83.5363655</v>
+      </c>
+      <c r="N21">
+        <v>167.072731</v>
+      </c>
+      <c r="O21">
+        <v>0.5772095936007515</v>
+      </c>
+      <c r="P21">
+        <v>0.4764833079049545</v>
+      </c>
+      <c r="Q21">
+        <v>3.063807586533167</v>
+      </c>
+      <c r="R21">
+        <v>18.382845519199</v>
+      </c>
+      <c r="S21">
+        <v>0.0002072323852866314</v>
+      </c>
+      <c r="T21">
+        <v>0.000199732625120375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>43.980731</v>
+      </c>
+      <c r="H22">
+        <v>87.961462</v>
+      </c>
+      <c r="I22">
+        <v>0.4305272225287646</v>
+      </c>
+      <c r="J22">
+        <v>0.335109386099409</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>18.91686333333334</v>
+      </c>
+      <c r="N22">
+        <v>56.75059</v>
+      </c>
+      <c r="O22">
+        <v>0.1307094812119195</v>
+      </c>
+      <c r="P22">
+        <v>0.1618499242031174</v>
+      </c>
+      <c r="Q22">
+        <v>831.9774776270967</v>
+      </c>
+      <c r="R22">
+        <v>4991.86486576258</v>
+      </c>
+      <c r="S22">
+        <v>0.05627398990434344</v>
+      </c>
+      <c r="T22">
+        <v>0.05423742873994257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>43.980731</v>
+      </c>
+      <c r="H23">
+        <v>87.961462</v>
+      </c>
+      <c r="I23">
+        <v>0.4305272225287646</v>
+      </c>
+      <c r="J23">
+        <v>0.335109386099409</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>30.812519</v>
+      </c>
+      <c r="N23">
+        <v>92.437557</v>
+      </c>
+      <c r="O23">
+        <v>0.2129046609025076</v>
+      </c>
+      <c r="P23">
+        <v>0.2636274194501123</v>
+      </c>
+      <c r="Q23">
+        <v>1355.157109571389</v>
+      </c>
+      <c r="R23">
+        <v>8130.942657428333</v>
+      </c>
+      <c r="S23">
+        <v>0.09166125232178506</v>
+      </c>
+      <c r="T23">
+        <v>0.08834402269089853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>40.2613731190249</v>
-      </c>
-      <c r="H16">
-        <v>40.2613731190249</v>
-      </c>
-      <c r="I16">
-        <v>0.4268693297856042</v>
-      </c>
-      <c r="J16">
-        <v>0.4268693297856042</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>82.60165915502201</v>
-      </c>
-      <c r="N16">
-        <v>82.60165915502201</v>
-      </c>
-      <c r="O16">
-        <v>0.5933984575746277</v>
-      </c>
-      <c r="P16">
-        <v>0.5933984575746277</v>
-      </c>
-      <c r="Q16">
-        <v>3325.65621949086</v>
-      </c>
-      <c r="R16">
-        <v>3325.65621949086</v>
-      </c>
-      <c r="S16">
-        <v>0.2533036018806926</v>
-      </c>
-      <c r="T16">
-        <v>0.2533036018806926</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>43.980731</v>
+      </c>
+      <c r="H24">
+        <v>87.961462</v>
+      </c>
+      <c r="I24">
+        <v>0.4305272225287646</v>
+      </c>
+      <c r="J24">
+        <v>0.335109386099409</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.973992333333332</v>
+      </c>
+      <c r="N24">
+        <v>17.921977</v>
+      </c>
+      <c r="O24">
+        <v>0.04127837818006743</v>
+      </c>
+      <c r="P24">
+        <v>0.05111260727016254</v>
+      </c>
+      <c r="Q24">
+        <v>262.7405498083956</v>
+      </c>
+      <c r="R24">
+        <v>1576.443298850374</v>
+      </c>
+      <c r="S24">
+        <v>0.01777146550835639</v>
+      </c>
+      <c r="T24">
+        <v>0.01712831444424436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>43.980731</v>
+      </c>
+      <c r="H25">
+        <v>87.961462</v>
+      </c>
+      <c r="I25">
+        <v>0.4305272225287646</v>
+      </c>
+      <c r="J25">
+        <v>0.335109386099409</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.484752333333333</v>
+      </c>
+      <c r="N25">
+        <v>16.454257</v>
+      </c>
+      <c r="O25">
+        <v>0.03789788610475406</v>
+      </c>
+      <c r="P25">
+        <v>0.04692674117165327</v>
+      </c>
+      <c r="Q25">
+        <v>241.2234169739556</v>
+      </c>
+      <c r="R25">
+        <v>1447.340501843734</v>
+      </c>
+      <c r="S25">
+        <v>0.01631607164439123</v>
+      </c>
+      <c r="T25">
+        <v>0.01572559142567859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>43.980731</v>
+      </c>
+      <c r="H26">
+        <v>87.961462</v>
+      </c>
+      <c r="I26">
+        <v>0.4305272225287646</v>
+      </c>
+      <c r="J26">
+        <v>0.335109386099409</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>83.5363655</v>
+      </c>
+      <c r="N26">
+        <v>167.072731</v>
+      </c>
+      <c r="O26">
+        <v>0.5772095936007515</v>
+      </c>
+      <c r="P26">
+        <v>0.4764833079049545</v>
+      </c>
+      <c r="Q26">
+        <v>3673.99041977318</v>
+      </c>
+      <c r="R26">
+        <v>14695.96167909272</v>
+      </c>
+      <c r="S26">
+        <v>0.2485044431498885</v>
+      </c>
+      <c r="T26">
+        <v>0.159674028798645</v>
       </c>
     </row>
   </sheetData>
